--- a/Modelos em Python/7 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros test.xlsx
+++ b/Modelos em Python/7 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros test.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.5357308824798</v>
+        <v>5.535730882516514</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3829243998873644</v>
+        <v>0.3829243998895389</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1377201739507156</v>
+        <v>0.1377201739511202</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.014753787744012</v>
+        <v>7.014753712990237</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4790229832359406</v>
+        <v>0.4790229804443302</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1743715067780292</v>
+        <v>0.1743715091494638</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.804360989307133</v>
+        <v>5.804360989272796</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4025236732433052</v>
+        <v>0.4025236732407585</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1462332895682308</v>
+        <v>0.1462332895673147</v>
       </c>
     </row>
     <row r="5">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.702490670030994</v>
+        <v>5.681937132078322</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3930650369431664</v>
+        <v>0.3916283070291653</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1394490901949987</v>
+        <v>0.1390339901054909</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.283263447002907</v>
+        <v>6.248596550168835</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4367999678949492</v>
+        <v>0.4344386436891544</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1502324064433923</v>
+        <v>0.1492712847863601</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.025643925042095</v>
+        <v>7.025643925042225</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4798621668582383</v>
+        <v>0.4798621668582477</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1744967731358722</v>
+        <v>0.1744967731358746</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.047755842003449</v>
+        <v>7.047756373862245</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4809598530684452</v>
+        <v>0.4809599034433418</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1756968088389554</v>
+        <v>0.1756968217400429</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.40627242071833</v>
+        <v>6.556874199691354</v>
       </c>
       <c r="C10" t="n">
-        <v>5.212176056235394</v>
+        <v>0.5814204975661607</v>
       </c>
       <c r="D10" t="n">
-        <v>1.149875649355746</v>
+        <v>0.1466317807477452</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.818447918725798</v>
+        <v>7.838464493384397</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5747798243309482</v>
+        <v>0.576486333664608</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2073016286165811</v>
+        <v>0.2078423781933507</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.179165318743472</v>
+        <v>7.925006562165096</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6931381471831388</v>
+        <v>0.5839381732723929</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2401441794612843</v>
+        <v>0.210154728528622</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.465453737077326</v>
+        <v>7.383736928058548</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4650409864622796</v>
+        <v>0.542791897780657</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1568888215965603</v>
+        <v>0.1735853382385902</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/7 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros test.xlsx
+++ b/Modelos em Python/7 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros test.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.838464493384397</v>
+        <v>7.870029459596902</v>
       </c>
       <c r="C11" t="n">
-        <v>0.576486333664608</v>
+        <v>0.5791762153042195</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2078423781933507</v>
+        <v>0.2085580962325292</v>
       </c>
     </row>
     <row r="12">
